--- a/salesdata.xlsx
+++ b/salesdata.xlsx
@@ -415,13 +415,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>15750</v>
+        <v>19000</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/salesdata.xlsx
+++ b/salesdata.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="B2">
         <v>2</v>
